--- a/biology/Botanique/Giroflée_des_dunes/Giroflée_des_dunes.xlsx
+++ b/biology/Botanique/Giroflée_des_dunes/Giroflée_des_dunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Girofl%C3%A9e_des_dunes</t>
+          <t>Giroflée_des_dunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthiola sinuata
 La Giroflée des dunes ou Matthiole à feuilles sinuées (Matthiola sinuata) est une espèce de plante herbacée bisannuelle de la famille des Brassicaceae poussant sur les sables des côtes méditerranéenne et atlantique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Girofl%C3%A9e_des_dunes</t>
+          <t>Giroflée_des_dunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matthiola doit son nom à Pierandrea Mattioli. Giroflée est le féminin substantivé de l'adjectif « giroflé », ses fleurs étant censées dégager une odeur de clou de girofle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthiola doit son nom à Pierandrea Mattioli. Giroflée est le féminin substantivé de l'adjectif « giroflé », ses fleurs étant censées dégager une odeur de clou de girofle.
 Cette plante porte également les noms vernaculaires de  Matthiole blanchâtre, Matthiole sinuée (allusion aux sinus de ses feuilles), Giroflée rouge ou Julienne des sables.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Girofl%C3%A9e_des_dunes</t>
+          <t>Giroflée_des_dunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante psammophyte buissonnante laineuse (nombreux poils glanduleux qui favorisent la limitation de la perte d'eau et réduisent le dessèchement par le vent en le freinant fortement) de 15 cm à 60 cm de hauteur, aux tiges très feuillées à la base, à rameaux étalés. Elle présente une hétérophyllie marquée : les feuilles inférieures sont sinuées-dentées ou pennatifides, les supérieures linéaires-lancéolées
-Appareil reproducteur
-Organes reproducteurs
-La floraison a lieu d'avril à septembre[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante psammophyte buissonnante laineuse (nombreux poils glanduleux qui favorisent la limitation de la perte d'eau et réduisent le dessèchement par le vent en le freinant fortement) de 15 cm à 60 cm de hauteur, aux tiges très feuillées à la base, à rameaux étalés. Elle présente une hétérophyllie marquée : les feuilles inférieures sont sinuées-dentées ou pennatifides, les supérieures linéaires-lancéolées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giroflée_des_dunes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Girofl%C3%A9e_des_dunes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
+La floraison a lieu d'avril à septembre.
 Type d'inflorescence : racème simple
 répartition des sexes : hermaphrodite
 Fleurs purpurines, rarement blanches, rose à mauve pâle à quatre pétales assez étroits formant une croix. Elles sont odorantes le soir
@@ -565,31 +619,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Girofl%C3%A9e_des_dunes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giroflée_des_dunes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Girofl%C3%A9e_des_dunes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette hémicryptophyte pousse en pieds isolés sur le haut de plage et surtout dans les arrière-dunes et les creux dunaires (dunes submaritimes vivaces thermophiles).
 L'aire de répartition est méditerranéenne-atlantique.
@@ -597,31 +653,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Girofl%C3%A9e_des_dunes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giroflée_des_dunes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Girofl%C3%A9e_des_dunes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthiola sinuata (L.) R.Br. subsp. ligurica (Conti) Vierh., des dunes méditerranéennes.
 Matthiola sinuata (L.) R.Br. subsp. sinuata, des dunes méditerranéennes et atlantiques.
